--- a/biology/Histoire de la zoologie et de la botanique/Joachim_Camerarius_le_Jeune/Joachim_Camerarius_le_Jeune.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Joachim_Camerarius_le_Jeune/Joachim_Camerarius_le_Jeune.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Joachim Camerarius le Jeune, né le 6 novembre 1534 et mort le 11 octobre 1598 à Nuremberg, est un médecin et botaniste allemand.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Fils du philosophe Joachim Camerarius l'Ancien (1500-1574), Joachim Camerarius le Jeune a étudié la philosophie sous Philippe Melanchthon (1497-1560), la médecine avec Johann Crato von Krafftheim (de) (1519-1585). Il étudie à Wittenberg et dans d'autres universités et voyage en Hongrie et en Italie. Dans ce pays, où il séjourne assez longtemps, il obtient le titre de médecin à l'université de Bologne. Il rencontre, à Pise, Andrea Cesalpino.
 De retour en Allemagne, dans sa ville natale, il y fonde un jardin botanique. Il est l'ami de Gabriel Fallope (1523-1572), de Girolamo Capivaccio (?-1589), d'Hieronymous Fabricius ab Aquapendente (1537-1619), d'Ulisse Aldrovandi (1522-1605) et de nombreux savants européens. Il décida les magistrats de Nuremberg à créer une Académie de médecine[Lequel ?] dont il fut le doyen.
@@ -545,7 +559,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Hortus medicus, 1588
 Symbolorum et emblematum ex re herbaria desumtorum centuria una collecta a Joachimo Camerario (« Première centurie de symboles et emblèmes choisis par Joachim Camerarius dans le domaine des plantes »). Symbolorum et emblematum ex animalibus quadrupedibus desumtorum centuria altera collecta a Joachimo Camerario (« Autre centurie de symboles et emblèmes choisis par Joachim Camerarius dans le domaine des animaux quadrupèdes »). Symbolorum et emblematum ex volatilibus et insectis desumtorum centuria tertia collecta a Joachimo Camerario (« Troisième centurie de symboles et emblèmes choisis par Joachim Camerarius dans le domaine des volatiles et insectes ») 1590-1596, nombreuses rééditions.
